--- a/target/classes/Resources/TestData.xlsx
+++ b/target/classes/Resources/TestData.xlsx
@@ -1,27 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="5175"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>7rmart supermarket</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -41,17 +64,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +168,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +376,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="90.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/target/classes/Resources/TestData.xlsx
+++ b/target/classes/Resources/TestData.xlsx
@@ -4,27 +4,122 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="5175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="4020" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="home" sheetId="3" r:id="rId2"/>
+    <sheet name="manageproduct" sheetId="2" r:id="rId3"/>
+    <sheet name="managepage" sheetId="4" r:id="rId4"/>
+    <sheet name="newbuttonpage" sheetId="5" r:id="rId5"/>
+    <sheet name="searchbuttonpage" sheetId="6" r:id="rId6"/>
+    <sheet name="footertextupdate" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>7rmart supermarket</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+  <si>
+    <t>rgba(52, 58, 64, 1)</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Dashboard | 7rmart supermarket</t>
+  </si>
+  <si>
+    <t>adminswapna</t>
+  </si>
+  <si>
+    <t>List Products | 7rmart supermarket</t>
+  </si>
+  <si>
+    <t>new button color</t>
+  </si>
+  <si>
+    <t>rgba(220, 53, 69, 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin </t>
+  </si>
+  <si>
+    <t>newbuttoncolor</t>
+  </si>
+  <si>
+    <t>List Pages | 7rmart supermarket</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Add Pages | 7rmart supermarket</t>
+  </si>
+  <si>
+    <t>titleof new button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title </t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>pagename</t>
+  </si>
+  <si>
+    <t>new page one</t>
+  </si>
+  <si>
+    <t>page is created</t>
+  </si>
+  <si>
+    <t>newpage</t>
+  </si>
+  <si>
+    <t>Fatal error</t>
+  </si>
+  <si>
+    <t>errotext</t>
+  </si>
+  <si>
+    <t>pagetitle</t>
+  </si>
+  <si>
+    <t>sample title</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/pages/index?un=sample+title&amp;Search=sr</t>
+  </si>
+  <si>
+    <t>searchpage redirecting url</t>
+  </si>
+  <si>
+    <t>managepagelink</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-page</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-footertext</t>
+  </si>
+  <si>
+    <t>footerurl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,6 +134,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -68,10 +169,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -377,9 +479,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -387,23 +491,297 @@
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://groceryapp.uniqassosiates.com/admin"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="86.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="75.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/target/classes/Resources/TestData.xlsx
+++ b/target/classes/Resources/TestData.xlsx
@@ -4,23 +4,34 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="4020" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="4020" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="home" sheetId="3" r:id="rId2"/>
-    <sheet name="manageproduct" sheetId="2" r:id="rId3"/>
-    <sheet name="managepage" sheetId="4" r:id="rId4"/>
-    <sheet name="newbuttonpage" sheetId="5" r:id="rId5"/>
-    <sheet name="searchbuttonpage" sheetId="6" r:id="rId6"/>
-    <sheet name="footertextupdate" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
+    <sheet name="home" sheetId="3" r:id="rId3"/>
+    <sheet name="manageproduct" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="17" r:id="rId5"/>
+    <sheet name="pushnotification" sheetId="9" r:id="rId6"/>
+    <sheet name="managepayment" sheetId="10" r:id="rId7"/>
+    <sheet name="managepage" sheetId="4" r:id="rId8"/>
+    <sheet name="deliveryboy" sheetId="8" r:id="rId9"/>
+    <sheet name="managenews" sheetId="12" r:id="rId10"/>
+    <sheet name="adminuserpage" sheetId="13" r:id="rId11"/>
+    <sheet name="managelocation" sheetId="14" r:id="rId12"/>
+    <sheet name="verifyusers" sheetId="18" r:id="rId13"/>
+    <sheet name="manageslider" sheetId="15" r:id="rId14"/>
+    <sheet name="manageExpense" sheetId="16" r:id="rId15"/>
+    <sheet name="newbuttonpage" sheetId="5" r:id="rId16"/>
+    <sheet name="searchbuttonpage" sheetId="6" r:id="rId17"/>
+    <sheet name="footertextupdate" sheetId="7" r:id="rId18"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
   <si>
     <t>rgba(52, 58, 64, 1)</t>
   </si>
@@ -112,14 +123,265 @@
     <t>https://groceryapp.uniqassosiates.com/admin/list-footertext</t>
   </si>
   <si>
-    <t>footerurl</t>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-product</t>
+  </si>
+  <si>
+    <t>manageproductlink</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-deliveryboy</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/Deliveryboy/add</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-deliveryboy?add=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Content </t>
+  </si>
+  <si>
+    <t>foote</t>
+  </si>
+  <si>
+    <t>List Products(804)</t>
+  </si>
+  <si>
+    <t>Enter Product Informations</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>alfam</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>weight value</t>
+  </si>
+  <si>
+    <t>weightunit</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>maximumqty</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mrp</t>
+  </si>
+  <si>
+    <t>stockavailability</t>
+  </si>
+  <si>
+    <t>purchaseprice</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-notifications</t>
+  </si>
+  <si>
+    <t>Push Notifications Informations</t>
+  </si>
+  <si>
+    <t>new notification</t>
+  </si>
+  <si>
+    <t>send notification</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+Message send successfully</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+Footer Text Updated Successfully</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+Invalid Username/Password</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>.........RESULT NOT FOUND.......</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-payment-methods</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/Product/Methods?statusid=2&amp;st=Disabled&amp;page_ad=1</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-payment-methods?edit=2&amp;page_ad=1</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>rgba(255, 193, 7, 1)</t>
+  </si>
+  <si>
+    <t>rgba(40, 167, 69, 1)</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+Product Status Changed Successfully</t>
+  </si>
+  <si>
+    <t>rgba(0, 123, 255, 1)</t>
+  </si>
+  <si>
+    <t>federalBank</t>
+  </si>
+  <si>
+    <t>Do you want to delete this Delivery Boy Details?</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+Delivery Boy Informations Deleted Successfully</t>
+  </si>
+  <si>
+    <t>Juanita</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>550.861.6133</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-news</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+News Created Successfully</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-admin</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+User Created Successfully</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+User Deleted Successfully</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-location</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+Location Created Successfully</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-slider</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/expense</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-expense</t>
+  </si>
+  <si>
+    <t>addtitle</t>
+  </si>
+  <si>
+    <t>descriprtion</t>
+  </si>
+  <si>
+    <t>page name</t>
+  </si>
+  <si>
+    <t>new title new one</t>
+  </si>
+  <si>
+    <t>abcd add</t>
+  </si>
+  <si>
+    <t>new page new one</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/verify-users</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+Delivery Boy Details Created Successfully</t>
+  </si>
+  <si>
+    <t>shyam</t>
+  </si>
+  <si>
+    <t>Alert!</t>
+  </si>
+  <si>
+    <t>Payment Method Updated Successfully</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+Payment Method Updated Successfully</t>
+  </si>
+  <si>
+    <t>debit</t>
+  </si>
+  <si>
+    <t>List Products(789)</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+User Verified Successfully</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/home</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin</t>
+  </si>
+  <si>
+    <t>7rmart supermarket</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+Expense Record Deleted Successfully</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,27 +398,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF1F2937"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -164,16 +438,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE2E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -479,24 +808,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="90.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>104</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -533,13 +866,36 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C1" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -549,113 +905,204 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="71.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="65.5703125" customWidth="1"/>
+    <col min="1" max="1" width="81.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://groceryapp.uniqassosiates.com/admin"/>
-    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="79.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -706,9 +1153,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -744,20 +1191,26 @@
         <v>25</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,18 +1221,547 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+    </row>
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.7109375" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="A16" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+    </row>
+    <row r="7" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="103" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="4">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://groceryapp.uniqassosiates.com/admin"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.140625" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/target/classes/Resources/TestData.xlsx
+++ b/target/classes/Resources/TestData.xlsx
@@ -4,34 +4,36 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="4020" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="4020" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
     <sheet name="home" sheetId="3" r:id="rId3"/>
-    <sheet name="manageproduct" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="17" r:id="rId5"/>
-    <sheet name="pushnotification" sheetId="9" r:id="rId6"/>
-    <sheet name="managepayment" sheetId="10" r:id="rId7"/>
-    <sheet name="managepage" sheetId="4" r:id="rId8"/>
-    <sheet name="deliveryboy" sheetId="8" r:id="rId9"/>
-    <sheet name="managenews" sheetId="12" r:id="rId10"/>
-    <sheet name="adminuserpage" sheetId="13" r:id="rId11"/>
-    <sheet name="managelocation" sheetId="14" r:id="rId12"/>
-    <sheet name="verifyusers" sheetId="18" r:id="rId13"/>
-    <sheet name="manageslider" sheetId="15" r:id="rId14"/>
-    <sheet name="manageExpense" sheetId="16" r:id="rId15"/>
-    <sheet name="newbuttonpage" sheetId="5" r:id="rId16"/>
-    <sheet name="searchbuttonpage" sheetId="6" r:id="rId17"/>
-    <sheet name="footertextupdate" sheetId="7" r:id="rId18"/>
+    <sheet name="manageoffercode" sheetId="19" r:id="rId4"/>
+    <sheet name="slider" sheetId="20" r:id="rId5"/>
+    <sheet name="manageproduct" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="17" r:id="rId7"/>
+    <sheet name="pushnotification" sheetId="9" r:id="rId8"/>
+    <sheet name="managepayment" sheetId="10" r:id="rId9"/>
+    <sheet name="managepage" sheetId="4" r:id="rId10"/>
+    <sheet name="deliveryboy" sheetId="8" r:id="rId11"/>
+    <sheet name="managenews" sheetId="12" r:id="rId12"/>
+    <sheet name="adminuserpage" sheetId="13" r:id="rId13"/>
+    <sheet name="managelocation" sheetId="14" r:id="rId14"/>
+    <sheet name="verifyusers" sheetId="18" r:id="rId15"/>
+    <sheet name="manageslider" sheetId="15" r:id="rId16"/>
+    <sheet name="manageExpense" sheetId="16" r:id="rId17"/>
+    <sheet name="newbuttonpage" sheetId="5" r:id="rId18"/>
+    <sheet name="searchbuttonpage" sheetId="6" r:id="rId19"/>
+    <sheet name="footertextupdate" sheetId="7" r:id="rId20"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
   <si>
     <t>rgba(52, 58, 64, 1)</t>
   </si>
@@ -355,9 +357,6 @@
     <t>debit</t>
   </si>
   <si>
-    <t>List Products(789)</t>
-  </si>
-  <si>
     <t>×
 Alert!
 User Verified Successfully</t>
@@ -375,6 +374,12 @@
     <t>×
 Alert!
 Expense Record Deleted Successfully</t>
+  </si>
+  <si>
+    <t>List Products</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-offercode</t>
   </si>
 </sst>
 </file>
@@ -823,13 +828,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -897,6 +902,168 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://groceryapp.uniqassosiates.com/admin"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.140625" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -931,7 +1098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -968,7 +1135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1009,7 +1176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1029,7 +1196,7 @@
     </row>
     <row r="2" spans="1:1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1064,11 +1231,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1089,7 +1256,7 @@
     </row>
     <row r="3" spans="1:1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1153,7 +1320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1205,7 +1372,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1255,18 +1434,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
@@ -1297,7 +1464,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1306,6 +1473,63 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -1445,7 +1669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1457,7 +1681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -1513,7 +1737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1604,166 +1828,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="65.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://groceryapp.uniqassosiates.com/admin"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="66.140625" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>